--- a/Assets/Table/Language.xlsx
+++ b/Assets/Table/Language.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>Id</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>Cancel</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>丢弃</t>
+  </si>
+  <si>
+    <t>丟棄</t>
+  </si>
+  <si>
+    <t>Throw</t>
   </si>
   <si>
     <t>地图素材</t>
@@ -350,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -364,40 +379,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,43 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -464,21 +413,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +434,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -507,6 +485,43 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -523,12 +538,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -541,13 +682,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,151 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,21 +729,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -767,11 +767,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,8 +800,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,17 +821,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,133 +849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,12 +1346,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1577,26 +1592,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1604,21 +1625,21 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1626,21 +1647,21 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1648,21 +1669,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1670,21 +1691,21 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1692,71 +1713,71 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="3">
-        <v>6001</v>
-      </c>
-      <c r="C29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="3">
-        <v>6002</v>
+        <v>6000</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="3" t="s">
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="3">
+        <v>6001</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="3">
-        <v>7000</v>
+        <v>6002</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1764,21 +1785,21 @@
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1786,21 +1807,21 @@
         <v>4</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1808,21 +1829,21 @@
         <v>4</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="3">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1830,21 +1851,21 @@
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="3">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1852,40 +1873,34 @@
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="3">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="3">
-        <v>100001</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="3" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="3">
-        <v>100002</v>
+        <v>100000</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>94</v>
@@ -1894,7 +1909,35 @@
         <v>94</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
